--- a/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第23章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与死亡圣器 第23章 角色统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>角色</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>格兰杰</t>
+  </si>
+  <si>
+    <t>宾斯</t>
   </si>
   <si>
     <t>伏地魔</t>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -467,7 +470,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -528,6 +531,17 @@
         <v>11</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
